--- a/Assignment_1_IT23543164.xlsx
+++ b/Assignment_1_IT23543164.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chand\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Assignment 1\playwright-excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0FCACD6-DA92-43C8-9D7B-F30B26B9F537}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B2C77D5-059A-4DF2-B426-A27C36333808}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="323" uniqueCount="211">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="212">
   <si>
     <t>TC ID</t>
   </si>
@@ -816,6 +816,9 @@
 • Simple sentence
 • S (≤30 characters)
 • Real-time output update behavior</t>
+  </si>
+  <si>
+    <t>suba udhaeesanak veevaa.</t>
   </si>
 </sst>
 </file>
@@ -1248,7 +1251,9 @@
       <c r="C2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="3"/>
+      <c r="D2" s="3" t="s">
+        <v>211</v>
+      </c>
       <c r="E2" s="3" t="s">
         <v>12</v>
       </c>
